--- a/habitacoes_normalizado.xlsx
+++ b/habitacoes_normalizado.xlsx
@@ -5,22 +5,25 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grupo EMAC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grupo EMAC\OneDrive - Universidade Aberta\Documents\GitHub\Visualiza-o-de-Informa-o-2025-26\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E333DF-42BF-40BF-A062-E9ADF499D656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A66AD11-16EA-42CC-88F5-015D4745BE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$233</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="23">
   <si>
     <t>Distrito</t>
   </si>
@@ -85,37 +88,10 @@
     <t>Viseu</t>
   </si>
   <si>
-    <t>Ilha de Santa Maria</t>
+    <t>Açores</t>
   </si>
   <si>
-    <t>Ilha de São Miguel</t>
-  </si>
-  <si>
-    <t>Ilha Terceira</t>
-  </si>
-  <si>
-    <t>Ilha da Graciosa</t>
-  </si>
-  <si>
-    <t>Ilha de São Jorge</t>
-  </si>
-  <si>
-    <t>Ilha do Pico</t>
-  </si>
-  <si>
-    <t>Ilha do Faial</t>
-  </si>
-  <si>
-    <t>Ilha das Flores</t>
-  </si>
-  <si>
-    <t>Ilha do Corvo</t>
-  </si>
-  <si>
-    <t>Ilha da Madeira</t>
-  </si>
-  <si>
-    <t>Ilha de Porto Santo</t>
+    <t>Madeira</t>
   </si>
 </sst>
 </file>
@@ -483,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C233"/>
+  <dimension ref="A1:C161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1296,1768 +1272,975 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B74">
         <v>1940</v>
       </c>
       <c r="C74">
-        <v>3025</v>
+        <v>108483</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B75">
         <v>1950</v>
       </c>
       <c r="C75">
-        <v>3187</v>
+        <v>134355</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B76">
         <v>1960</v>
       </c>
       <c r="C76">
-        <v>3768</v>
+        <v>164442</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B77">
         <v>1981</v>
       </c>
       <c r="C77">
-        <v>2562</v>
+        <v>143939</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B78">
         <v>1991</v>
       </c>
       <c r="C78">
-        <v>2743</v>
+        <v>166770</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B79">
         <v>2001</v>
       </c>
       <c r="C79">
-        <v>2858</v>
+        <v>186191</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B80">
         <v>2011</v>
       </c>
       <c r="C80">
-        <v>2775</v>
+        <v>214922</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B81">
         <v>2021</v>
       </c>
       <c r="C81">
-        <v>2791</v>
+        <v>215874</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B82">
         <v>1940</v>
       </c>
       <c r="C82">
-        <v>51542</v>
+        <v>155320</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B83">
         <v>1950</v>
       </c>
       <c r="C83">
-        <v>54113</v>
+        <v>199922</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B84">
         <v>1960</v>
       </c>
       <c r="C84">
-        <v>77801</v>
+        <v>238876</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B85">
         <v>1981</v>
       </c>
       <c r="C85">
-        <v>61214</v>
+        <v>266133</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B86">
         <v>1991</v>
       </c>
       <c r="C86">
-        <v>66247</v>
+        <v>303854</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B87">
         <v>2001</v>
       </c>
       <c r="C87">
-        <v>72806</v>
+        <v>325251</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B88">
         <v>2011</v>
       </c>
       <c r="C88">
-        <v>88238</v>
+        <v>366073</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B89">
         <v>2021</v>
       </c>
       <c r="C89">
-        <v>87423</v>
+        <v>365844</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B90">
         <v>1940</v>
       </c>
       <c r="C90">
-        <v>2259</v>
+        <v>54746</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B91">
         <v>1950</v>
       </c>
       <c r="C91">
-        <v>2798</v>
+        <v>68465</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B92">
         <v>1960</v>
       </c>
       <c r="C92">
-        <v>3444</v>
+        <v>77903</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B93">
         <v>1981</v>
       </c>
       <c r="C93">
-        <v>1851</v>
+        <v>59944</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B94">
         <v>1991</v>
       </c>
       <c r="C94">
-        <v>1614</v>
+        <v>61827</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B95">
         <v>2001</v>
       </c>
       <c r="C95">
-        <v>1892</v>
+        <v>64628</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B96">
         <v>2011</v>
       </c>
       <c r="C96">
-        <v>2097</v>
+        <v>67917</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B97">
         <v>2021</v>
       </c>
       <c r="C97">
-        <v>2109</v>
+        <v>67444</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B98">
         <v>1940</v>
       </c>
       <c r="C98">
-        <v>715</v>
+        <v>200743</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B99">
         <v>1950</v>
       </c>
       <c r="C99">
-        <v>917</v>
+        <v>229383</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B100">
         <v>1960</v>
       </c>
       <c r="C100">
-        <v>1414</v>
+        <v>289006</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B101">
         <v>1981</v>
       </c>
       <c r="C101">
-        <v>1295</v>
+        <v>306275</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B102">
         <v>1991</v>
       </c>
       <c r="C102">
-        <v>1602</v>
+        <v>360609</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B103">
         <v>2001</v>
       </c>
       <c r="C103">
-        <v>1993</v>
+        <v>411924</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B104">
         <v>2011</v>
       </c>
       <c r="C104">
-        <v>3723</v>
+        <v>443042</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B105">
         <v>2021</v>
       </c>
       <c r="C105">
-        <v>3547</v>
+        <v>443980</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B106">
         <v>1940</v>
       </c>
       <c r="C106">
-        <v>3011</v>
+        <v>146134</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B107">
         <v>1950</v>
       </c>
       <c r="C107">
-        <v>3061</v>
+        <v>185782</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B108">
         <v>1960</v>
       </c>
       <c r="C108">
-        <v>4524</v>
+        <v>226486</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B109">
         <v>1981</v>
       </c>
       <c r="C109">
-        <v>3044</v>
+        <v>161538</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B110">
         <v>1991</v>
       </c>
       <c r="C110">
-        <v>3151</v>
+        <v>175111</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B111">
         <v>2001</v>
       </c>
       <c r="C111">
-        <v>3446</v>
+        <v>189749</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B112">
         <v>2011</v>
       </c>
       <c r="C112">
-        <v>3510</v>
+        <v>211558</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B113">
         <v>2021</v>
       </c>
       <c r="C113">
-        <v>3525</v>
+        <v>209481</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B114">
         <v>1940</v>
       </c>
       <c r="C114">
-        <v>4562</v>
+        <v>61310</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B115">
         <v>1950</v>
       </c>
       <c r="C115">
-        <v>8413</v>
+        <v>90342</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B116">
         <v>1960</v>
       </c>
       <c r="C116">
-        <v>7487</v>
+        <v>97402</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B117">
         <v>1981</v>
       </c>
       <c r="C117">
-        <v>3738</v>
+        <v>130127</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B118">
         <v>1991</v>
       </c>
       <c r="C118">
-        <v>4586</v>
+        <v>150533</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B119">
         <v>2001</v>
       </c>
       <c r="C119">
-        <v>4807</v>
+        <v>175580</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B120">
         <v>2011</v>
       </c>
       <c r="C120">
-        <v>5169</v>
+        <v>206603</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B121">
         <v>2021</v>
       </c>
       <c r="C121">
-        <v>5274</v>
+        <v>211746</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B122">
         <v>1940</v>
       </c>
       <c r="C122">
-        <v>34576</v>
+        <v>80740</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B123">
         <v>1950</v>
       </c>
       <c r="C123">
-        <v>38456</v>
+        <v>88979</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B124">
         <v>1960</v>
       </c>
       <c r="C124">
-        <v>41414</v>
+        <v>103837</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B125">
         <v>1981</v>
       </c>
       <c r="C125">
-        <v>35723</v>
+        <v>84045</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B126">
         <v>1991</v>
       </c>
       <c r="C126">
-        <v>37799</v>
+        <v>99693</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B127">
         <v>2001</v>
       </c>
       <c r="C127">
-        <v>42121</v>
+        <v>108587</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B128">
         <v>2011</v>
       </c>
       <c r="C128">
-        <v>47866</v>
+        <v>120886</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B129">
         <v>2021</v>
       </c>
       <c r="C129">
-        <v>48403</v>
+        <v>123631</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B130">
         <v>1940</v>
       </c>
       <c r="C130">
-        <v>306</v>
+        <v>94211</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B131">
         <v>1950</v>
       </c>
       <c r="C131">
-        <v>335</v>
+        <v>123238</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B132">
         <v>1960</v>
       </c>
       <c r="C132">
-        <v>291</v>
+        <v>138427</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B133">
         <v>1981</v>
       </c>
       <c r="C133">
-        <v>143</v>
+        <v>89063</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B134">
         <v>1991</v>
       </c>
       <c r="C134">
-        <v>153</v>
+        <v>100759</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B135">
         <v>2001</v>
       </c>
       <c r="C135">
-        <v>146</v>
+        <v>108695</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B136">
         <v>2011</v>
       </c>
       <c r="C136">
-        <v>181</v>
+        <v>118276</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B137">
         <v>2021</v>
       </c>
       <c r="C137">
-        <v>195</v>
+        <v>119688</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B138">
         <v>1940</v>
       </c>
       <c r="C138">
-        <v>6756</v>
+        <v>168818</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B139">
         <v>1950</v>
       </c>
       <c r="C139">
-        <v>7604</v>
+        <v>211773</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B140">
         <v>1960</v>
       </c>
       <c r="C140">
-        <v>8328</v>
+        <v>229259</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B141">
         <v>1981</v>
       </c>
       <c r="C141">
-        <v>5141</v>
+        <v>145853</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B142">
         <v>1991</v>
       </c>
       <c r="C142">
-        <v>5140</v>
+        <v>165351</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B143">
         <v>2001</v>
       </c>
       <c r="C143">
-        <v>5053</v>
+        <v>182618</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B144">
         <v>2011</v>
       </c>
       <c r="C144">
-        <v>6447</v>
+        <v>205653</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B145">
         <v>2021</v>
       </c>
       <c r="C145">
-        <v>6587</v>
+        <v>207281</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B146">
         <v>1940</v>
       </c>
       <c r="C146">
-        <v>7091</v>
+        <v>76292</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B147">
         <v>1950</v>
       </c>
       <c r="C147">
-        <v>6336</v>
+        <v>83389</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B148">
         <v>1960</v>
       </c>
       <c r="C148">
-        <v>10719</v>
+        <v>100899</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B149">
         <v>1981</v>
       </c>
       <c r="C149">
-        <v>6342</v>
+        <v>73145</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B150">
         <v>1991</v>
       </c>
       <c r="C150">
-        <v>7363</v>
+        <v>81004</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B151">
         <v>2001</v>
       </c>
       <c r="C151">
-        <v>7571</v>
+        <v>87585</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B152">
         <v>2011</v>
       </c>
       <c r="C152">
-        <v>8462</v>
+        <v>98818</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B153">
         <v>2021</v>
       </c>
       <c r="C153">
-        <v>8849</v>
+        <v>100478</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B154">
         <v>1940</v>
       </c>
       <c r="C154">
-        <v>14706</v>
+        <v>52257</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B155">
         <v>1950</v>
       </c>
       <c r="C155">
-        <v>13199</v>
+        <v>55030</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B156">
         <v>1960</v>
       </c>
       <c r="C156">
-        <v>20924</v>
+        <v>79215</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B157">
         <v>1981</v>
       </c>
       <c r="C157">
-        <v>14601</v>
+        <v>62509</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B158">
         <v>1991</v>
       </c>
       <c r="C158">
-        <v>18455</v>
+        <v>67849</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B159">
         <v>2001</v>
       </c>
       <c r="C159">
-        <v>19691</v>
+        <v>74799</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B160">
         <v>2011</v>
       </c>
       <c r="C160">
-        <v>22311</v>
+        <v>91961</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B161">
         <v>2021</v>
       </c>
       <c r="C161">
-        <v>22745</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>12</v>
-      </c>
-      <c r="B162">
-        <v>1940</v>
-      </c>
-      <c r="C162">
-        <v>108483</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>12</v>
-      </c>
-      <c r="B163">
-        <v>1950</v>
-      </c>
-      <c r="C163">
-        <v>134355</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>12</v>
-      </c>
-      <c r="B164">
-        <v>1960</v>
-      </c>
-      <c r="C164">
-        <v>164442</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>12</v>
-      </c>
-      <c r="B165">
-        <v>1981</v>
-      </c>
-      <c r="C165">
-        <v>143939</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>12</v>
-      </c>
-      <c r="B166">
-        <v>1991</v>
-      </c>
-      <c r="C166">
-        <v>166770</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>12</v>
-      </c>
-      <c r="B167">
-        <v>2001</v>
-      </c>
-      <c r="C167">
-        <v>186191</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>12</v>
-      </c>
-      <c r="B168">
-        <v>2011</v>
-      </c>
-      <c r="C168">
-        <v>214922</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>12</v>
-      </c>
-      <c r="B169">
-        <v>2021</v>
-      </c>
-      <c r="C169">
-        <v>215874</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>13</v>
-      </c>
-      <c r="B170">
-        <v>1940</v>
-      </c>
-      <c r="C170">
-        <v>155320</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>13</v>
-      </c>
-      <c r="B171">
-        <v>1950</v>
-      </c>
-      <c r="C171">
-        <v>199922</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>13</v>
-      </c>
-      <c r="B172">
-        <v>1960</v>
-      </c>
-      <c r="C172">
-        <v>238876</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>13</v>
-      </c>
-      <c r="B173">
-        <v>1981</v>
-      </c>
-      <c r="C173">
-        <v>266133</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>13</v>
-      </c>
-      <c r="B174">
-        <v>1991</v>
-      </c>
-      <c r="C174">
-        <v>303854</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>13</v>
-      </c>
-      <c r="B175">
-        <v>2001</v>
-      </c>
-      <c r="C175">
-        <v>325251</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>13</v>
-      </c>
-      <c r="B176">
-        <v>2011</v>
-      </c>
-      <c r="C176">
-        <v>366073</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>13</v>
-      </c>
-      <c r="B177">
-        <v>2021</v>
-      </c>
-      <c r="C177">
-        <v>365844</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>14</v>
-      </c>
-      <c r="B178">
-        <v>1940</v>
-      </c>
-      <c r="C178">
-        <v>54746</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>14</v>
-      </c>
-      <c r="B179">
-        <v>1950</v>
-      </c>
-      <c r="C179">
-        <v>68465</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>14</v>
-      </c>
-      <c r="B180">
-        <v>1960</v>
-      </c>
-      <c r="C180">
-        <v>77903</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>14</v>
-      </c>
-      <c r="B181">
-        <v>1981</v>
-      </c>
-      <c r="C181">
-        <v>59944</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>14</v>
-      </c>
-      <c r="B182">
-        <v>1991</v>
-      </c>
-      <c r="C182">
-        <v>61827</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>14</v>
-      </c>
-      <c r="B183">
-        <v>2001</v>
-      </c>
-      <c r="C183">
-        <v>64628</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>14</v>
-      </c>
-      <c r="B184">
-        <v>2011</v>
-      </c>
-      <c r="C184">
-        <v>67917</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>14</v>
-      </c>
-      <c r="B185">
-        <v>2021</v>
-      </c>
-      <c r="C185">
-        <v>67444</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>15</v>
-      </c>
-      <c r="B186">
-        <v>1940</v>
-      </c>
-      <c r="C186">
-        <v>200743</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>15</v>
-      </c>
-      <c r="B187">
-        <v>1950</v>
-      </c>
-      <c r="C187">
-        <v>229383</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>15</v>
-      </c>
-      <c r="B188">
-        <v>1960</v>
-      </c>
-      <c r="C188">
-        <v>289006</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>15</v>
-      </c>
-      <c r="B189">
-        <v>1981</v>
-      </c>
-      <c r="C189">
-        <v>306275</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>15</v>
-      </c>
-      <c r="B190">
-        <v>1991</v>
-      </c>
-      <c r="C190">
-        <v>360609</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>15</v>
-      </c>
-      <c r="B191">
-        <v>2001</v>
-      </c>
-      <c r="C191">
-        <v>411924</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>15</v>
-      </c>
-      <c r="B192">
-        <v>2011</v>
-      </c>
-      <c r="C192">
-        <v>443042</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>15</v>
-      </c>
-      <c r="B193">
-        <v>2021</v>
-      </c>
-      <c r="C193">
-        <v>443980</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>16</v>
-      </c>
-      <c r="B194">
-        <v>1940</v>
-      </c>
-      <c r="C194">
-        <v>146134</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>16</v>
-      </c>
-      <c r="B195">
-        <v>1950</v>
-      </c>
-      <c r="C195">
-        <v>185782</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>16</v>
-      </c>
-      <c r="B196">
-        <v>1960</v>
-      </c>
-      <c r="C196">
-        <v>226486</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>16</v>
-      </c>
-      <c r="B197">
-        <v>1981</v>
-      </c>
-      <c r="C197">
-        <v>161538</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>16</v>
-      </c>
-      <c r="B198">
-        <v>1991</v>
-      </c>
-      <c r="C198">
-        <v>175111</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>16</v>
-      </c>
-      <c r="B199">
-        <v>2001</v>
-      </c>
-      <c r="C199">
-        <v>189749</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>16</v>
-      </c>
-      <c r="B200">
-        <v>2011</v>
-      </c>
-      <c r="C200">
-        <v>211558</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>16</v>
-      </c>
-      <c r="B201">
-        <v>2021</v>
-      </c>
-      <c r="C201">
-        <v>209481</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>17</v>
-      </c>
-      <c r="B202">
-        <v>1940</v>
-      </c>
-      <c r="C202">
-        <v>61310</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>17</v>
-      </c>
-      <c r="B203">
-        <v>1950</v>
-      </c>
-      <c r="C203">
-        <v>90342</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>17</v>
-      </c>
-      <c r="B204">
-        <v>1960</v>
-      </c>
-      <c r="C204">
-        <v>97402</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>17</v>
-      </c>
-      <c r="B205">
-        <v>1981</v>
-      </c>
-      <c r="C205">
-        <v>130127</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>17</v>
-      </c>
-      <c r="B206">
-        <v>1991</v>
-      </c>
-      <c r="C206">
-        <v>150533</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>17</v>
-      </c>
-      <c r="B207">
-        <v>2001</v>
-      </c>
-      <c r="C207">
-        <v>175580</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>17</v>
-      </c>
-      <c r="B208">
-        <v>2011</v>
-      </c>
-      <c r="C208">
-        <v>206603</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>17</v>
-      </c>
-      <c r="B209">
-        <v>2021</v>
-      </c>
-      <c r="C209">
-        <v>211746</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>18</v>
-      </c>
-      <c r="B210">
-        <v>1940</v>
-      </c>
-      <c r="C210">
-        <v>80740</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>18</v>
-      </c>
-      <c r="B211">
-        <v>1950</v>
-      </c>
-      <c r="C211">
-        <v>88979</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>18</v>
-      </c>
-      <c r="B212">
-        <v>1960</v>
-      </c>
-      <c r="C212">
-        <v>103837</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>18</v>
-      </c>
-      <c r="B213">
-        <v>1981</v>
-      </c>
-      <c r="C213">
-        <v>84045</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>18</v>
-      </c>
-      <c r="B214">
-        <v>1991</v>
-      </c>
-      <c r="C214">
-        <v>99693</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>18</v>
-      </c>
-      <c r="B215">
-        <v>2001</v>
-      </c>
-      <c r="C215">
-        <v>108587</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>18</v>
-      </c>
-      <c r="B216">
-        <v>2011</v>
-      </c>
-      <c r="C216">
-        <v>120886</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>18</v>
-      </c>
-      <c r="B217">
-        <v>2021</v>
-      </c>
-      <c r="C217">
-        <v>123631</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>19</v>
-      </c>
-      <c r="B218">
-        <v>1940</v>
-      </c>
-      <c r="C218">
-        <v>94211</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>19</v>
-      </c>
-      <c r="B219">
-        <v>1950</v>
-      </c>
-      <c r="C219">
-        <v>123238</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>19</v>
-      </c>
-      <c r="B220">
-        <v>1960</v>
-      </c>
-      <c r="C220">
-        <v>138427</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>19</v>
-      </c>
-      <c r="B221">
-        <v>1981</v>
-      </c>
-      <c r="C221">
-        <v>89063</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>19</v>
-      </c>
-      <c r="B222">
-        <v>1991</v>
-      </c>
-      <c r="C222">
-        <v>100759</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>19</v>
-      </c>
-      <c r="B223">
-        <v>2001</v>
-      </c>
-      <c r="C223">
-        <v>108695</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>19</v>
-      </c>
-      <c r="B224">
-        <v>2011</v>
-      </c>
-      <c r="C224">
-        <v>118276</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>19</v>
-      </c>
-      <c r="B225">
-        <v>2021</v>
-      </c>
-      <c r="C225">
-        <v>119688</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>20</v>
-      </c>
-      <c r="B226">
-        <v>1940</v>
-      </c>
-      <c r="C226">
-        <v>168818</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>20</v>
-      </c>
-      <c r="B227">
-        <v>1950</v>
-      </c>
-      <c r="C227">
-        <v>211773</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>20</v>
-      </c>
-      <c r="B228">
-        <v>1960</v>
-      </c>
-      <c r="C228">
-        <v>229259</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>20</v>
-      </c>
-      <c r="B229">
-        <v>1981</v>
-      </c>
-      <c r="C229">
-        <v>145853</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>20</v>
-      </c>
-      <c r="B230">
-        <v>1991</v>
-      </c>
-      <c r="C230">
-        <v>165351</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>20</v>
-      </c>
-      <c r="B231">
-        <v>2001</v>
-      </c>
-      <c r="C231">
-        <v>182618</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>20</v>
-      </c>
-      <c r="B232">
-        <v>2011</v>
-      </c>
-      <c r="C232">
-        <v>205653</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>20</v>
-      </c>
-      <c r="B233">
-        <v>2021</v>
-      </c>
-      <c r="C233">
-        <v>207281</v>
+        <v>90970</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C233">
-    <sortCondition ref="A2:A233"/>
-    <sortCondition ref="B2:B233"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C234">
+    <sortCondition ref="A2:A234"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
